--- a/CuentasClaras/Files/index.xlsx
+++ b/CuentasClaras/Files/index.xlsx
@@ -1,19 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="index" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">index!$A$1:$N$214</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="80">
   <si>
     <t>Year</t>
   </si>
@@ -177,8 +175,7 @@
     <t>Int. Artigas</t>
   </si>
   <si>
-    <t>Gobiernos
-Departamentales</t>
+    <t>Gobiernos Departamentales</t>
   </si>
   <si>
     <t>Int. Colonia</t>
@@ -252,16 +249,28 @@
   <si>
     <t>ANCAP</t>
   </si>
+  <si>
+    <t>Gobiernos
+Departamentales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
     </font>
     <font/>
   </fonts>
@@ -279,15 +288,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -298,35 +313,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <outlinePr summaryRight="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="6.56"/>
-    <col customWidth="1" min="2" max="2" width="11.44"/>
-    <col customWidth="1" min="3" max="3" width="30.22"/>
-    <col customWidth="1" min="4" max="4" width="22.11"/>
-    <col customWidth="1" min="5" max="7" width="14.22"/>
-    <col customWidth="1" min="8" max="8" width="13.89"/>
-    <col customWidth="1" min="9" max="9" width="14.89"/>
-    <col customWidth="1" min="10" max="10" width="15.44"/>
-    <col customWidth="1" min="11" max="11" width="16.33"/>
-    <col customWidth="1" min="12" max="12" width="16.44"/>
-    <col customWidth="1" min="13" max="13" width="25.11"/>
-    <col customWidth="1" min="14" max="14" width="15.22"/>
-  </cols>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -7281,2471 +7279,2514 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2">
+      <c r="A159" s="3">
         <v>2018.0</v>
       </c>
-      <c r="B159" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C159" s="2" t="s">
+      <c r="B159" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="3">
         <v>0.132</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159" s="3">
         <v>0.02</v>
       </c>
-      <c r="G159" s="2">
-        <v>0.068</v>
-      </c>
-      <c r="H159" s="2">
+      <c r="G159" s="3">
+        <v>0.994</v>
+      </c>
+      <c r="H159" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I159" s="3">
         <v>0.932</v>
       </c>
-      <c r="I159" s="2">
-        <v>0.932</v>
-      </c>
-      <c r="J159" s="2">
+      <c r="J159" s="3">
         <v>0.758</v>
       </c>
-      <c r="K159" s="2">
+      <c r="K159" s="3">
         <v>0.132</v>
       </c>
-      <c r="L159" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M159" s="2">
-        <v>2.97</v>
-      </c>
-      <c r="N159" s="2">
+      <c r="L159" s="3">
+        <v>0.042</v>
+      </c>
+      <c r="M159" s="3">
+        <v>3.01</v>
+      </c>
+      <c r="N159" s="3">
         <v>515.0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2">
+      <c r="A160" s="3">
         <v>2018.0</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="3">
         <v>10.0</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="3">
         <v>0.127</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160" s="3">
         <v>0.192</v>
       </c>
-      <c r="G160" s="2">
-        <v>0.212</v>
-      </c>
-      <c r="H160" s="2">
-        <v>0.787</v>
-      </c>
-      <c r="I160" s="2">
+      <c r="G160" s="3">
+        <v>0.982</v>
+      </c>
+      <c r="H160" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="I160" s="3">
         <v>0.791</v>
       </c>
-      <c r="J160" s="2">
+      <c r="J160" s="3">
         <v>0.579</v>
       </c>
-      <c r="K160" s="2">
+      <c r="K160" s="3">
         <v>0.147</v>
       </c>
-      <c r="L160" s="2">
+      <c r="L160" s="3">
+        <v>0.122</v>
+      </c>
+      <c r="M160" s="3">
+        <v>2.94</v>
+      </c>
+      <c r="N160" s="3">
+        <v>3195.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B161" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0.012</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0.115</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0.895</v>
+      </c>
+      <c r="H161" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I161" s="3">
+        <v>0.691</v>
+      </c>
+      <c r="J161" s="3">
+        <v>0.507</v>
+      </c>
+      <c r="K161" s="3">
+        <v>0.119</v>
+      </c>
+      <c r="L161" s="3">
+        <v>0.308</v>
+      </c>
+      <c r="M161" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="N161" s="3">
+        <v>3614.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B162" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0.017</v>
+      </c>
+      <c r="F162" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G162" s="3">
+        <v>0.965</v>
+      </c>
+      <c r="H162" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="I162" s="3">
+        <v>0.785</v>
+      </c>
+      <c r="J162" s="3">
+        <v>0.628</v>
+      </c>
+      <c r="K162" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="L162" s="3">
+        <v>0.384</v>
+      </c>
+      <c r="M162" s="3">
+        <v>3.34</v>
+      </c>
+      <c r="N162" s="3">
+        <v>4692.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B163" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0.176</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0.964</v>
+      </c>
+      <c r="H163" s="3">
+        <v>0.049</v>
+      </c>
+      <c r="I163" s="3">
+        <v>0.728</v>
+      </c>
+      <c r="J163" s="3">
+        <v>0.745</v>
+      </c>
+      <c r="K163" s="3">
+        <v>0.169</v>
+      </c>
+      <c r="L163" s="3">
+        <v>0.325</v>
+      </c>
+      <c r="M163" s="3">
+        <v>3.16</v>
+      </c>
+      <c r="N163" s="3">
+        <v>323.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B164" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0.131</v>
+      </c>
+      <c r="F164" s="3">
+        <v>0.213</v>
+      </c>
+      <c r="G164" s="3">
+        <v>0.937</v>
+      </c>
+      <c r="H164" s="3">
+        <v>0.002</v>
+      </c>
+      <c r="I164" s="3">
+        <v>0.344</v>
+      </c>
+      <c r="J164" s="3">
+        <v>0.741</v>
+      </c>
+      <c r="K164" s="3">
+        <v>0.272</v>
+      </c>
+      <c r="L164" s="3">
+        <v>0.242</v>
+      </c>
+      <c r="M164" s="3">
+        <v>2.88</v>
+      </c>
+      <c r="N164" s="3">
+        <v>396.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B165" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F165" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="G165" s="3">
+        <v>0.897</v>
+      </c>
+      <c r="H165" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="I165" s="3">
+        <v>0.647</v>
+      </c>
+      <c r="J165" s="3">
+        <v>0.672</v>
+      </c>
+      <c r="K165" s="3">
+        <v>0.082</v>
+      </c>
+      <c r="L165" s="3">
+        <v>0.464</v>
+      </c>
+      <c r="M165" s="3">
+        <v>2.89</v>
+      </c>
+      <c r="N165" s="3">
+        <v>493.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B166" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0.021</v>
+      </c>
+      <c r="F166" s="3">
+        <v>0.078</v>
+      </c>
+      <c r="G166" s="3">
+        <v>0.811</v>
+      </c>
+      <c r="H166" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I166" s="3">
+        <v>0.58</v>
+      </c>
+      <c r="J166" s="3">
+        <v>0.457</v>
+      </c>
+      <c r="K166" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="L166" s="3">
+        <v>0.309</v>
+      </c>
+      <c r="M166" s="3">
+        <v>2.34</v>
+      </c>
+      <c r="N166" s="3">
+        <v>260.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B167" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F167" s="3">
+        <v>0.063</v>
+      </c>
+      <c r="G167" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H167" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I167" s="3">
+        <v>0.089</v>
+      </c>
+      <c r="J167" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="K167" s="3">
+        <v>0.452</v>
+      </c>
+      <c r="L167" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M167" s="3">
+        <v>2.45</v>
+      </c>
+      <c r="N167" s="3">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B168" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0.042</v>
+      </c>
+      <c r="F168" s="3">
+        <v>0.047</v>
+      </c>
+      <c r="G168" s="3">
+        <v>0.975</v>
+      </c>
+      <c r="H168" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I168" s="3">
+        <v>0.815</v>
+      </c>
+      <c r="J168" s="3">
+        <v>0.594</v>
+      </c>
+      <c r="K168" s="3">
+        <v>0.086</v>
+      </c>
+      <c r="L168" s="3">
+        <v>0.262</v>
+      </c>
+      <c r="M168" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="N168" s="3">
+        <v>1754.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B169" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0.086</v>
+      </c>
+      <c r="F169" s="3">
+        <v>0.065</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0.777</v>
+      </c>
+      <c r="H169" s="3">
+        <v>0.003</v>
+      </c>
+      <c r="I169" s="3">
+        <v>0.703</v>
+      </c>
+      <c r="J169" s="3">
+        <v>0.532</v>
+      </c>
+      <c r="K169" s="3">
+        <v>0.167</v>
+      </c>
+      <c r="L169" s="3">
+        <v>0.666</v>
+      </c>
+      <c r="M169" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="N169" s="3">
+        <v>397.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B170" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0.008</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0.155</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0.908</v>
+      </c>
+      <c r="H170" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I170" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="J170" s="3">
+        <v>0.549</v>
+      </c>
+      <c r="K170" s="3">
+        <v>0.086</v>
+      </c>
+      <c r="L170" s="3">
+        <v>0.177</v>
+      </c>
+      <c r="M170" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="N170" s="3">
+        <v>2241.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B171" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0.939</v>
+      </c>
+      <c r="H171" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I171" s="3">
+        <v>0.545</v>
+      </c>
+      <c r="J171" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="K171" s="3">
+        <v>0.038</v>
+      </c>
+      <c r="L171" s="3">
+        <v>0.108</v>
+      </c>
+      <c r="M171" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="N171" s="3">
+        <v>1143.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B172" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0.234</v>
+      </c>
+      <c r="G172" s="3">
+        <v>0.843</v>
+      </c>
+      <c r="H172" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I172" s="3">
+        <v>0.507</v>
+      </c>
+      <c r="J172" s="3">
+        <v>0.694</v>
+      </c>
+      <c r="K172" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="L172" s="3">
+        <v>0.084</v>
+      </c>
+      <c r="M172" s="3">
+        <v>2.49</v>
+      </c>
+      <c r="N172" s="3">
+        <v>611.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B173" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0.003</v>
+      </c>
+      <c r="F173" s="3">
+        <v>0.197</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0.827</v>
+      </c>
+      <c r="H173" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I173" s="3">
+        <v>0.369</v>
+      </c>
+      <c r="J173" s="3">
+        <v>0.817</v>
+      </c>
+      <c r="K173" s="3">
+        <v>0.108</v>
+      </c>
+      <c r="L173" s="3">
+        <v>0.223</v>
+      </c>
+      <c r="M173" s="3">
+        <v>2.54</v>
+      </c>
+      <c r="N173" s="3">
+        <v>409.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B174" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0.011</v>
+      </c>
+      <c r="F174" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0.964</v>
+      </c>
+      <c r="H174" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I174" s="3">
+        <v>0.477</v>
+      </c>
+      <c r="J174" s="3">
+        <v>0.405</v>
+      </c>
+      <c r="K174" s="3">
+        <v>0.107</v>
+      </c>
+      <c r="L174" s="3">
+        <v>0.081</v>
+      </c>
+      <c r="M174" s="3">
+        <v>2.27</v>
+      </c>
+      <c r="N174" s="3">
+        <v>11464.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B175" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175" s="3">
+        <v>0.002</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0.295</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0.945</v>
+      </c>
+      <c r="H175" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I175" s="3">
+        <v>0.432</v>
+      </c>
+      <c r="J175" s="3">
+        <v>0.497</v>
+      </c>
+      <c r="K175" s="3">
+        <v>0.069</v>
+      </c>
+      <c r="L175" s="3">
+        <v>0.166</v>
+      </c>
+      <c r="M175" s="3">
+        <v>2.41</v>
+      </c>
+      <c r="N175" s="3">
+        <v>2731.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B176" s="3">
+        <v>31.0</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E176" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F176" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G176" s="3">
+        <v>0.934</v>
+      </c>
+      <c r="H176" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I176" s="3">
+        <v>0.276</v>
+      </c>
+      <c r="J176" s="3">
+        <v>0.802</v>
+      </c>
+      <c r="K176" s="3">
+        <v>0.274</v>
+      </c>
+      <c r="L176" s="3">
+        <v>0.196</v>
+      </c>
+      <c r="M176" s="3">
+        <v>2.53</v>
+      </c>
+      <c r="N176" s="3">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B177" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E177" s="3">
+        <v>0.177</v>
+      </c>
+      <c r="F177" s="3">
+        <v>0.036</v>
+      </c>
+      <c r="G177" s="3">
+        <v>0.985</v>
+      </c>
+      <c r="H177" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I177" s="3">
+        <v>0.965</v>
+      </c>
+      <c r="J177" s="3">
+        <v>0.872</v>
+      </c>
+      <c r="K177" s="3">
+        <v>0.513</v>
+      </c>
+      <c r="L177" s="3">
+        <v>0.736</v>
+      </c>
+      <c r="M177" s="3">
+        <v>4.28</v>
+      </c>
+      <c r="N177" s="3">
+        <v>279.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B178" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0.045</v>
+      </c>
+      <c r="F178" s="3">
+        <v>0.084</v>
+      </c>
+      <c r="G178" s="3">
+        <v>0.968</v>
+      </c>
+      <c r="H178" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I178" s="3">
+        <v>0.711</v>
+      </c>
+      <c r="J178" s="3">
+        <v>0.684</v>
+      </c>
+      <c r="K178" s="3">
+        <v>0.192</v>
+      </c>
+      <c r="L178" s="3">
+        <v>0.311</v>
+      </c>
+      <c r="M178" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="N178" s="3">
+        <v>387.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B179" s="3">
+        <v>34.0</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F179" s="3">
+        <v>0.078</v>
+      </c>
+      <c r="G179" s="3">
+        <v>0.972</v>
+      </c>
+      <c r="H179" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I179" s="3">
+        <v>0.794</v>
+      </c>
+      <c r="J179" s="3">
+        <v>0.835</v>
+      </c>
+      <c r="K179" s="3">
+        <v>0.297</v>
+      </c>
+      <c r="L179" s="3">
+        <v>0.178</v>
+      </c>
+      <c r="M179" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="N179" s="3">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B180" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0.126</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0.983</v>
+      </c>
+      <c r="H180" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="I180" s="3">
+        <v>0.814</v>
+      </c>
+      <c r="J180" s="3">
+        <v>0.325</v>
+      </c>
+      <c r="K180" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="L180" s="3">
+        <v>0.268</v>
+      </c>
+      <c r="M180" s="3">
+        <v>2.58</v>
+      </c>
+      <c r="N180" s="3">
+        <v>10483.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B181" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F181" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G181" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H181" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I181" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J181" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K181" s="3">
+        <v>0.519</v>
+      </c>
+      <c r="L181" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M181" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="N181" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B182" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0.138</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="H182" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I182" s="3">
+        <v>0.765</v>
+      </c>
+      <c r="J182" s="3">
+        <v>0.521</v>
+      </c>
+      <c r="K182" s="3">
+        <v>0.095</v>
+      </c>
+      <c r="L182" s="3">
+        <v>0.145</v>
+      </c>
+      <c r="M182" s="3">
+        <v>2.61</v>
+      </c>
+      <c r="N182" s="3">
+        <v>1719.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B183" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0.019</v>
+      </c>
+      <c r="F183" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0.803</v>
+      </c>
+      <c r="H183" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I183" s="3">
+        <v>0.803</v>
+      </c>
+      <c r="J183" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K183" s="3">
+        <v>0.264</v>
+      </c>
+      <c r="L183" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="M183" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="N183" s="3">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B184" s="3">
+        <v>51.0</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0.017</v>
+      </c>
+      <c r="F184" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="G184" s="3">
+        <v>0.984</v>
+      </c>
+      <c r="H184" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I184" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="J184" s="3">
+        <v>0.139</v>
+      </c>
+      <c r="K184" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="L184" s="3">
+        <v>0.391</v>
+      </c>
+      <c r="M184" s="3">
+        <v>2.63</v>
+      </c>
+      <c r="N184" s="3">
+        <v>3594.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B185" s="3">
+        <v>52.0</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F185" s="3">
+        <v>0.023</v>
+      </c>
+      <c r="G185" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H185" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I185" s="3">
+        <v>0.318</v>
+      </c>
+      <c r="J185" s="3">
+        <v>0.833</v>
+      </c>
+      <c r="K185" s="3">
+        <v>0.677</v>
+      </c>
+      <c r="L185" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M185" s="3">
+        <v>2.85</v>
+      </c>
+      <c r="N185" s="3">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B186" s="3">
+        <v>53.0</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0.066</v>
+      </c>
+      <c r="F186" s="3">
+        <v>0.167</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="H186" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I186" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="J186" s="3">
+        <v>0.148</v>
+      </c>
+      <c r="K186" s="3">
+        <v>0.106</v>
+      </c>
+      <c r="L186" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M186" s="3">
+        <v>2.48</v>
+      </c>
+      <c r="N186" s="3">
+        <v>2872.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B187" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0.022</v>
+      </c>
+      <c r="F187" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="G187" s="3">
+        <v>0.948</v>
+      </c>
+      <c r="H187" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I187" s="3">
+        <v>0.926</v>
+      </c>
+      <c r="J187" s="3">
+        <v>0.722</v>
+      </c>
+      <c r="K187" s="3">
+        <v>0.102</v>
+      </c>
+      <c r="L187" s="3">
+        <v>0.234</v>
+      </c>
+      <c r="M187" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="N187" s="3">
+        <v>674.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B188" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E188" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F188" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G188" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H188" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I188" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J188" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K188" s="3">
+        <v>0.732</v>
+      </c>
+      <c r="L188" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M188" s="3">
+        <v>2.73</v>
+      </c>
+      <c r="N188" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B189" s="3">
+        <v>61.0</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E189" s="3">
+        <v>0.018</v>
+      </c>
+      <c r="F189" s="3">
+        <v>0.069</v>
+      </c>
+      <c r="G189" s="3">
+        <v>0.988</v>
+      </c>
+      <c r="H189" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I189" s="3">
+        <v>0.282</v>
+      </c>
+      <c r="J189" s="3">
+        <v>0.003</v>
+      </c>
+      <c r="K189" s="3">
+        <v>0.221</v>
+      </c>
+      <c r="L189" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="M189" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="N189" s="3">
+        <v>825.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B190" s="3">
+        <v>62.0</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E190" s="3">
+        <v>0.006</v>
+      </c>
+      <c r="F190" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G190" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H190" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I190" s="3">
+        <v>0.842</v>
+      </c>
+      <c r="J190" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K190" s="3">
+        <v>0.318</v>
+      </c>
+      <c r="L190" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M190" s="3">
+        <v>3.17</v>
+      </c>
+      <c r="N190" s="3">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B191" s="3">
+        <v>64.0</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E191" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="F191" s="3">
+        <v>0.104</v>
+      </c>
+      <c r="G191" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="H191" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I191" s="3">
+        <v>0.991</v>
+      </c>
+      <c r="J191" s="3">
+        <v>0.003</v>
+      </c>
+      <c r="K191" s="3">
+        <v>0.166</v>
+      </c>
+      <c r="L191" s="3">
+        <v>0.516</v>
+      </c>
+      <c r="M191" s="3">
+        <v>2.86</v>
+      </c>
+      <c r="N191" s="3">
+        <v>1278.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B192" s="3">
+        <v>66.0</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E192" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="F192" s="3">
+        <v>0.045</v>
+      </c>
+      <c r="G192" s="3">
+        <v>0.975</v>
+      </c>
+      <c r="H192" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I192" s="3">
+        <v>0.542</v>
+      </c>
+      <c r="J192" s="3">
+        <v>0.008</v>
+      </c>
+      <c r="K192" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="L192" s="3">
+        <v>0.039</v>
+      </c>
+      <c r="M192" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="N192" s="3">
+        <v>1555.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B193" s="3">
+        <v>67.0</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E193" s="3">
+        <v>0.003</v>
+      </c>
+      <c r="F193" s="3">
+        <v>0.062</v>
+      </c>
+      <c r="G193" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="H193" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I193" s="3">
+        <v>0.904</v>
+      </c>
+      <c r="J193" s="3">
+        <v>0.518</v>
+      </c>
+      <c r="K193" s="3">
+        <v>0.149</v>
+      </c>
+      <c r="L193" s="3">
+        <v>0.078</v>
+      </c>
+      <c r="M193" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="N193" s="3">
+        <v>2101.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B194" s="3">
+        <v>68.0</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E194" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F194" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G194" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H194" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I194" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J194" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K194" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L194" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M194" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="N194" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B195" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F195" s="3">
+        <v>0.067</v>
+      </c>
+      <c r="G195" s="3">
+        <v>0.948</v>
+      </c>
+      <c r="H195" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I195" s="3">
+        <v>0.853</v>
+      </c>
+      <c r="J195" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="K195" s="3">
+        <v>0.978</v>
+      </c>
+      <c r="L195" s="3">
+        <v>0.008</v>
+      </c>
+      <c r="M195" s="3">
+        <v>3.48</v>
+      </c>
+      <c r="N195" s="3">
+        <v>3257.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B196" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E196" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F196" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G196" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H196" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I196" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J196" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K196" s="3">
+        <v>0.883</v>
+      </c>
+      <c r="L196" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M196" s="3">
+        <v>2.88</v>
+      </c>
+      <c r="N196" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B197" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197" s="3">
+        <v>0.002</v>
+      </c>
+      <c r="F197" s="3">
+        <v>0.115</v>
+      </c>
+      <c r="G197" s="3">
+        <v>0.991</v>
+      </c>
+      <c r="H197" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I197" s="3">
+        <v>0.598</v>
+      </c>
+      <c r="J197" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="K197" s="3">
+        <v>0.085</v>
+      </c>
+      <c r="L197" s="3">
+        <v>0.134</v>
+      </c>
+      <c r="M197" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="N197" s="3">
+        <v>905.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B198" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E198" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F198" s="3">
+        <v>0.016</v>
+      </c>
+      <c r="G198" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H198" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I198" s="3">
+        <v>0.525</v>
+      </c>
+      <c r="J198" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="K198" s="3">
+        <v>0.183</v>
+      </c>
+      <c r="L198" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M198" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="N198" s="3">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B199" s="3">
+        <v>81.0</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F199" s="3">
+        <v>0.065</v>
+      </c>
+      <c r="G199" s="3">
+        <v>0.972</v>
+      </c>
+      <c r="H199" s="3">
+        <v>0.001</v>
+      </c>
+      <c r="I199" s="3">
+        <v>0.328</v>
+      </c>
+      <c r="J199" s="3">
+        <v>0.002</v>
+      </c>
+      <c r="K199" s="3">
+        <v>0.335</v>
+      </c>
+      <c r="L199" s="3">
+        <v>0.112</v>
+      </c>
+      <c r="M199" s="3">
+        <v>1.82</v>
+      </c>
+      <c r="N199" s="3">
+        <v>789.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B200" s="3">
+        <v>82.0</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E200" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F200" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G200" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H200" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I200" s="3">
+        <v>0.417</v>
+      </c>
+      <c r="J200" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K200" s="3">
+        <v>0.323</v>
+      </c>
+      <c r="L200" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M200" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="N200" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B201" s="3">
+        <v>83.0</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E201" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F201" s="3">
+        <v>0.037</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0.986</v>
+      </c>
+      <c r="H201" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I201" s="3">
+        <v>0.626</v>
+      </c>
+      <c r="J201" s="3">
+        <v>0.807</v>
+      </c>
+      <c r="K201" s="3">
+        <v>0.094</v>
+      </c>
+      <c r="L201" s="3">
+        <v>0.017</v>
+      </c>
+      <c r="M201" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="N201" s="3">
+        <v>146.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B202" s="3">
+        <v>84.0</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E202" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F202" s="3">
+        <v>0.048</v>
+      </c>
+      <c r="G202" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H202" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I202" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="J202" s="3">
+        <v>0.558</v>
+      </c>
+      <c r="K202" s="3">
+        <v>0.486</v>
+      </c>
+      <c r="L202" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M202" s="3">
+        <v>3.02</v>
+      </c>
+      <c r="N202" s="3">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B203" s="3">
+        <v>85.0</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E203" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F203" s="3">
+        <v>0.143</v>
+      </c>
+      <c r="G203" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H203" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I203" s="3">
+        <v>0.257</v>
+      </c>
+      <c r="J203" s="3">
+        <v>0.844</v>
+      </c>
+      <c r="K203" s="3">
+        <v>0.249</v>
+      </c>
+      <c r="L203" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M203" s="3">
+        <v>2.49</v>
+      </c>
+      <c r="N203" s="3">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B204" s="3">
+        <v>86.0</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E204" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F204" s="3">
+        <v>0.021</v>
+      </c>
+      <c r="G204" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H204" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I204" s="3">
+        <v>0.726</v>
+      </c>
+      <c r="J204" s="3">
+        <v>0.761</v>
+      </c>
+      <c r="K204" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="L204" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M204" s="3">
+        <v>2.79</v>
+      </c>
+      <c r="N204" s="3">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B205" s="3">
+        <v>88.0</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E205" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F205" s="3">
+        <v>0.057</v>
+      </c>
+      <c r="G205" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H205" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I205" s="3">
+        <v>0.714</v>
+      </c>
+      <c r="J205" s="3">
+        <v>0.523</v>
+      </c>
+      <c r="K205" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="L205" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M205" s="3">
+        <v>2.67</v>
+      </c>
+      <c r="N205" s="3">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B206" s="3">
+        <v>89.0</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E206" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F206" s="3">
+        <v>0.033</v>
+      </c>
+      <c r="G206" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="H206" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I206" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="J206" s="3">
+        <v>0.677</v>
+      </c>
+      <c r="K206" s="3">
+        <v>0.266</v>
+      </c>
+      <c r="L206" s="3">
+        <v>0.101</v>
+      </c>
+      <c r="M206" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="N206" s="3">
+        <v>240.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B207" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E207" s="3">
         <v>0.01</v>
       </c>
-      <c r="M160" s="2">
-        <v>2.85</v>
-      </c>
-      <c r="N160" s="2">
-        <v>3195.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2">
+      <c r="F207" s="3">
+        <v>0.056</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0.794</v>
+      </c>
+      <c r="H207" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I207" s="3">
+        <v>0.779</v>
+      </c>
+      <c r="J207" s="3">
+        <v>0.509</v>
+      </c>
+      <c r="K207" s="3">
+        <v>0.079</v>
+      </c>
+      <c r="L207" s="3">
+        <v>0.731</v>
+      </c>
+      <c r="M207" s="3">
+        <v>2.96</v>
+      </c>
+      <c r="N207" s="3">
+        <v>670.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="3">
         <v>2018.0</v>
       </c>
-      <c r="B161" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E161" s="2">
-        <v>0.012</v>
-      </c>
-      <c r="F161" s="2">
-        <v>0.115</v>
-      </c>
-      <c r="G161" s="2">
-        <v>0.324</v>
-      </c>
-      <c r="H161" s="2">
-        <v>0.674</v>
-      </c>
-      <c r="I161" s="2">
-        <v>0.691</v>
-      </c>
-      <c r="J161" s="2">
-        <v>0.507</v>
-      </c>
-      <c r="K161" s="2">
-        <v>0.119</v>
-      </c>
-      <c r="L161" s="2">
-        <v>0.011</v>
-      </c>
-      <c r="M161" s="2">
-        <v>2.45</v>
-      </c>
-      <c r="N161" s="2">
-        <v>3614.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2">
+      <c r="B208" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E208" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F208" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G208" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H208" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I208" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J208" s="3">
+        <v>0.908</v>
+      </c>
+      <c r="K208" s="3">
+        <v>0.374</v>
+      </c>
+      <c r="L208" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M208" s="3">
+        <v>3.08</v>
+      </c>
+      <c r="N208" s="3">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="3">
         <v>2018.0</v>
       </c>
-      <c r="B162" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E162" s="2">
-        <v>0.017</v>
-      </c>
-      <c r="F162" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G162" s="2">
-        <v>0.219</v>
-      </c>
-      <c r="H162" s="2">
-        <v>0.776</v>
-      </c>
-      <c r="I162" s="2">
-        <v>0.785</v>
-      </c>
-      <c r="J162" s="2">
-        <v>0.628</v>
-      </c>
-      <c r="K162" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="L162" s="2">
-        <v>0.006</v>
-      </c>
-      <c r="M162" s="2">
-        <v>2.99</v>
-      </c>
-      <c r="N162" s="2">
-        <v>4692.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2">
+      <c r="B209" s="3">
+        <v>91.0</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E209" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F209" s="3">
+        <v>0.167</v>
+      </c>
+      <c r="G209" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H209" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I209" s="3">
+        <v>0.995</v>
+      </c>
+      <c r="J209" s="3">
+        <v>0.968</v>
+      </c>
+      <c r="K209" s="3">
+        <v>0.743</v>
+      </c>
+      <c r="L209" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M209" s="3">
+        <v>3.87</v>
+      </c>
+      <c r="N209" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3">
         <v>2018.0</v>
       </c>
-      <c r="B163" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E163" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F163" s="2">
-        <v>0.176</v>
-      </c>
-      <c r="G163" s="2">
-        <v>0.287</v>
-      </c>
-      <c r="H163" s="2">
-        <v>0.713</v>
-      </c>
-      <c r="I163" s="2">
-        <v>0.728</v>
-      </c>
-      <c r="J163" s="2">
-        <v>0.745</v>
-      </c>
-      <c r="K163" s="2">
-        <v>0.169</v>
-      </c>
-      <c r="L163" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M163" s="2">
-        <v>2.82</v>
-      </c>
-      <c r="N163" s="2">
-        <v>323.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2">
+      <c r="B210" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E210" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F210" s="3">
+        <v>0.027</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0.997</v>
+      </c>
+      <c r="H210" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I210" s="3">
+        <v>0.789</v>
+      </c>
+      <c r="J210" s="3">
+        <v>0.854</v>
+      </c>
+      <c r="K210" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L210" s="3">
+        <v>0.004</v>
+      </c>
+      <c r="M210" s="3">
+        <v>2.87</v>
+      </c>
+      <c r="N210" s="3">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="3">
         <v>2018.0</v>
       </c>
-      <c r="B164" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E164" s="2">
-        <v>0.131</v>
-      </c>
-      <c r="F164" s="2">
-        <v>0.213</v>
-      </c>
-      <c r="G164" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="H164" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="I164" s="2">
-        <v>0.344</v>
-      </c>
-      <c r="J164" s="2">
-        <v>0.741</v>
-      </c>
-      <c r="K164" s="2">
-        <v>0.272</v>
-      </c>
-      <c r="L164" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M164" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="N164" s="2">
-        <v>396.0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2">
+      <c r="B211" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E211" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F211" s="3">
+        <v>0.021</v>
+      </c>
+      <c r="G211" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H211" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I211" s="3">
+        <v>0.225</v>
+      </c>
+      <c r="J211" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="K211" s="3">
+        <v>0.162</v>
+      </c>
+      <c r="L211" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M211" s="3">
+        <v>2.24</v>
+      </c>
+      <c r="N211" s="3">
+        <v>74.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="3">
         <v>2018.0</v>
       </c>
-      <c r="B165" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E165" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="F165" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="G165" s="2">
-        <v>0.357</v>
-      </c>
-      <c r="H165" s="2">
-        <v>0.642</v>
-      </c>
-      <c r="I165" s="2">
-        <v>0.647</v>
-      </c>
-      <c r="J165" s="2">
-        <v>0.672</v>
-      </c>
-      <c r="K165" s="2">
-        <v>0.082</v>
-      </c>
-      <c r="L165" s="2">
-        <v>0.001</v>
-      </c>
-      <c r="M165" s="2">
-        <v>2.53</v>
-      </c>
-      <c r="N165" s="2">
-        <v>493.0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2">
+      <c r="B212" s="3">
+        <v>96.0</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E212" s="3">
+        <v>0.069</v>
+      </c>
+      <c r="F212" s="3">
+        <v>0.168</v>
+      </c>
+      <c r="G212" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H212" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I212" s="3">
+        <v>0.168</v>
+      </c>
+      <c r="J212" s="3">
+        <v>0.929</v>
+      </c>
+      <c r="K212" s="3">
+        <v>0.427</v>
+      </c>
+      <c r="L212" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M212" s="3">
+        <v>2.76</v>
+      </c>
+      <c r="N212" s="3">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="3">
         <v>2018.0</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B213" s="3">
+        <v>97.0</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E213" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F213" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G213" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H213" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I213" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="J213" s="3">
+        <v>0.832</v>
+      </c>
+      <c r="K213" s="3">
+        <v>0.501</v>
+      </c>
+      <c r="L213" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M213" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="N213" s="3">
+        <v>408.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B214" s="3">
+        <v>98.0</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E214" s="3">
+        <v>0.002</v>
+      </c>
+      <c r="F214" s="3">
+        <v>0.148</v>
+      </c>
+      <c r="G214" s="3">
+        <v>0.983</v>
+      </c>
+      <c r="H214" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I214" s="3">
+        <v>0.269</v>
+      </c>
+      <c r="J214" s="3">
+        <v>0.172</v>
+      </c>
+      <c r="K214" s="3">
+        <v>0.049</v>
+      </c>
+      <c r="L214" s="3">
+        <v>0.104</v>
+      </c>
+      <c r="M214" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="N214" s="3">
+        <v>6639.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E215" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F215" s="3">
+        <v>0.104</v>
+      </c>
+      <c r="G215" s="3">
+        <v>0.955</v>
+      </c>
+      <c r="H215" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I215" s="3">
+        <v>0.239</v>
+      </c>
+      <c r="J215" s="3">
+        <v>0.939</v>
+      </c>
+      <c r="K215" s="3">
+        <v>0.369</v>
+      </c>
+      <c r="L215" s="3">
+        <v>0.013</v>
+      </c>
+      <c r="M215" s="3">
+        <v>2.62</v>
+      </c>
+      <c r="N215" s="3">
         <v>16.0</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E166" s="2">
-        <v>0.021</v>
-      </c>
-      <c r="F166" s="2">
-        <v>0.078</v>
-      </c>
-      <c r="G166" s="2">
-        <v>0.422</v>
-      </c>
-      <c r="H166" s="2">
-        <v>0.568</v>
-      </c>
-      <c r="I166" s="2">
-        <v>0.58</v>
-      </c>
-      <c r="J166" s="2">
-        <v>0.457</v>
-      </c>
-      <c r="K166" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="L166" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="M166" s="2">
-        <v>2.22</v>
-      </c>
-      <c r="N166" s="2">
-        <v>260.0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B167" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E167" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F167" s="2">
-        <v>0.063</v>
-      </c>
-      <c r="G167" s="2">
-        <v>0.911</v>
-      </c>
-      <c r="H167" s="2">
-        <v>0.089</v>
-      </c>
-      <c r="I167" s="2">
-        <v>0.089</v>
-      </c>
-      <c r="J167" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="K167" s="2">
-        <v>0.452</v>
-      </c>
-      <c r="L167" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M167" s="2">
-        <v>2.45</v>
-      </c>
-      <c r="N167" s="2">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B168" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E168" s="2">
-        <v>0.042</v>
-      </c>
-      <c r="F168" s="2">
-        <v>0.047</v>
-      </c>
-      <c r="G168" s="2">
-        <v>0.189</v>
-      </c>
-      <c r="H168" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="I168" s="2">
-        <v>0.815</v>
-      </c>
-      <c r="J168" s="2">
-        <v>0.594</v>
-      </c>
-      <c r="K168" s="2">
-        <v>0.086</v>
-      </c>
-      <c r="L168" s="2">
-        <v>0.002</v>
-      </c>
-      <c r="M168" s="2">
-        <v>2.58</v>
-      </c>
-      <c r="N168" s="2">
-        <v>1754.0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B169" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E169" s="2">
-        <v>0.086</v>
-      </c>
-      <c r="F169" s="2">
-        <v>0.065</v>
-      </c>
-      <c r="G169" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H169" s="2">
-        <v>0.697</v>
-      </c>
-      <c r="I169" s="2">
-        <v>0.703</v>
-      </c>
-      <c r="J169" s="2">
-        <v>0.532</v>
-      </c>
-      <c r="K169" s="2">
-        <v>0.167</v>
-      </c>
-      <c r="L169" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M169" s="2">
-        <v>2.55</v>
-      </c>
-      <c r="N169" s="2">
-        <v>397.0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B170" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E170" s="2">
-        <v>0.008</v>
-      </c>
-      <c r="F170" s="2">
-        <v>0.155</v>
-      </c>
-      <c r="G170" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="H170" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I170" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="J170" s="2">
-        <v>0.549</v>
-      </c>
-      <c r="K170" s="2">
-        <v>0.085</v>
-      </c>
-      <c r="L170" s="2">
-        <v>0.018</v>
-      </c>
-      <c r="M170" s="2">
-        <v>2.41</v>
-      </c>
-      <c r="N170" s="2">
-        <v>2242.0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B171" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E171" s="2">
-        <v>0.001</v>
-      </c>
-      <c r="F171" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="G171" s="2">
-        <v>0.457</v>
-      </c>
-      <c r="H171" s="2">
-        <v>0.538</v>
-      </c>
-      <c r="I171" s="2">
-        <v>0.545</v>
-      </c>
-      <c r="J171" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="K171" s="2">
-        <v>0.038</v>
-      </c>
-      <c r="L171" s="2">
-        <v>0.009</v>
-      </c>
-      <c r="M171" s="2">
-        <v>2.38</v>
-      </c>
-      <c r="N171" s="2">
-        <v>1143.0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B172" s="2">
-        <v>27.0</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E172" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F172" s="2">
-        <v>0.234</v>
-      </c>
-      <c r="G172" s="2">
-        <v>0.487</v>
-      </c>
-      <c r="H172" s="2">
-        <v>0.495</v>
-      </c>
-      <c r="I172" s="2">
-        <v>0.507</v>
-      </c>
-      <c r="J172" s="2">
-        <v>0.694</v>
-      </c>
-      <c r="K172" s="2">
-        <v>0.124</v>
-      </c>
-      <c r="L172" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M172" s="2">
-        <v>2.54</v>
-      </c>
-      <c r="N172" s="2">
-        <v>611.0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B173" s="2">
-        <v>28.0</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E173" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="F173" s="2">
-        <v>0.196</v>
-      </c>
-      <c r="G173" s="2">
-        <v>0.645</v>
-      </c>
-      <c r="H173" s="2">
-        <v>0.354</v>
-      </c>
-      <c r="I173" s="2">
-        <v>0.368</v>
-      </c>
-      <c r="J173" s="2">
-        <v>0.817</v>
-      </c>
-      <c r="K173" s="2">
-        <v>0.103</v>
-      </c>
-      <c r="L173" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M173" s="2">
-        <v>2.49</v>
-      </c>
-      <c r="N173" s="2">
-        <v>409.0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B174" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E174" s="2">
-        <v>0.011</v>
-      </c>
-      <c r="F174" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="G174" s="2">
-        <v>0.538</v>
-      </c>
-      <c r="H174" s="2">
-        <v>0.455</v>
-      </c>
-      <c r="I174" s="2">
-        <v>0.477</v>
-      </c>
-      <c r="J174" s="2">
-        <v>0.405</v>
-      </c>
-      <c r="K174" s="2">
-        <v>0.107</v>
-      </c>
-      <c r="L174" s="2">
-        <v>0.019</v>
-      </c>
-      <c r="M174" s="2">
-        <v>2.24</v>
-      </c>
-      <c r="N174" s="2">
-        <v>11467.0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B175" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E175" s="2">
-        <v>0.002</v>
-      </c>
-      <c r="F175" s="2">
-        <v>0.294</v>
-      </c>
-      <c r="G175" s="2">
-        <v>0.607</v>
-      </c>
-      <c r="H175" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="I175" s="2">
-        <v>0.432</v>
-      </c>
-      <c r="J175" s="2">
-        <v>0.496</v>
-      </c>
-      <c r="K175" s="2">
-        <v>0.069</v>
-      </c>
-      <c r="L175" s="2">
-        <v>0.005</v>
-      </c>
-      <c r="M175" s="2">
-        <v>2.29</v>
-      </c>
-      <c r="N175" s="2">
-        <v>2732.0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B176" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E176" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F176" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G176" s="2">
-        <v>0.724</v>
-      </c>
-      <c r="H176" s="2">
-        <v>0.276</v>
-      </c>
-      <c r="I176" s="2">
-        <v>0.276</v>
-      </c>
-      <c r="J176" s="2">
-        <v>0.802</v>
-      </c>
-      <c r="K176" s="2">
-        <v>0.274</v>
-      </c>
-      <c r="L176" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M176" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="N176" s="2">
-        <v>93.0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B177" s="2">
-        <v>32.0</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E177" s="2">
-        <v>0.177</v>
-      </c>
-      <c r="F177" s="2">
-        <v>0.036</v>
-      </c>
-      <c r="G177" s="2">
-        <v>0.035</v>
-      </c>
-      <c r="H177" s="2">
-        <v>0.965</v>
-      </c>
-      <c r="I177" s="2">
-        <v>0.965</v>
-      </c>
-      <c r="J177" s="2">
-        <v>0.872</v>
-      </c>
-      <c r="K177" s="2">
-        <v>0.513</v>
-      </c>
-      <c r="L177" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M177" s="2">
-        <v>3.56</v>
-      </c>
-      <c r="N177" s="2">
-        <v>279.0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B178" s="2">
-        <v>33.0</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E178" s="2">
-        <v>0.045</v>
-      </c>
-      <c r="F178" s="2">
-        <v>0.084</v>
-      </c>
-      <c r="G178" s="2">
-        <v>0.318</v>
-      </c>
-      <c r="H178" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="I178" s="2">
-        <v>0.711</v>
-      </c>
-      <c r="J178" s="2">
-        <v>0.684</v>
-      </c>
-      <c r="K178" s="2">
-        <v>0.192</v>
-      </c>
-      <c r="L178" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="M178" s="2">
-        <v>2.73</v>
-      </c>
-      <c r="N178" s="2">
-        <v>387.0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B179" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E179" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F179" s="2">
-        <v>0.078</v>
-      </c>
-      <c r="G179" s="2">
-        <v>0.227</v>
-      </c>
-      <c r="H179" s="2">
-        <v>0.773</v>
-      </c>
-      <c r="I179" s="2">
-        <v>0.794</v>
-      </c>
-      <c r="J179" s="2">
-        <v>0.835</v>
-      </c>
-      <c r="K179" s="2">
-        <v>0.297</v>
-      </c>
-      <c r="L179" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M179" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="N179" s="2">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B180" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E180" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F180" s="2">
-        <v>0.126</v>
-      </c>
-      <c r="G180" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="H180" s="2">
-        <v>0.805</v>
-      </c>
-      <c r="I180" s="2">
-        <v>0.814</v>
-      </c>
-      <c r="J180" s="2">
-        <v>0.325</v>
-      </c>
-      <c r="K180" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="L180" s="2">
-        <v>0.006</v>
-      </c>
-      <c r="M180" s="2">
-        <v>2.33</v>
-      </c>
-      <c r="N180" s="2">
-        <v>10483.0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B181" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E181" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F181" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G181" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H181" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I181" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J181" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="K181" s="2">
-        <v>0.519</v>
-      </c>
-      <c r="L181" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M181" s="2">
-        <v>2.52</v>
-      </c>
-      <c r="N181" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B182" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E182" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="F182" s="2">
-        <v>0.138</v>
-      </c>
-      <c r="G182" s="2">
-        <v>0.244</v>
-      </c>
-      <c r="H182" s="2">
-        <v>0.755</v>
-      </c>
-      <c r="I182" s="2">
-        <v>0.765</v>
-      </c>
-      <c r="J182" s="2">
-        <v>0.521</v>
-      </c>
-      <c r="K182" s="2">
-        <v>0.095</v>
-      </c>
-      <c r="L182" s="2">
-        <v>0.001</v>
-      </c>
-      <c r="M182" s="2">
-        <v>2.55</v>
-      </c>
-      <c r="N182" s="2">
-        <v>1720.0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B183" s="2">
-        <v>50.0</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E183" s="2">
-        <v>0.019</v>
-      </c>
-      <c r="F183" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G183" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="H183" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="I183" s="2">
-        <v>0.803</v>
-      </c>
-      <c r="J183" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K183" s="2">
-        <v>0.264</v>
-      </c>
-      <c r="L183" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M183" s="2">
-        <v>2.59</v>
-      </c>
-      <c r="N183" s="2">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B184" s="2">
-        <v>51.0</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E184" s="2">
-        <v>0.017</v>
-      </c>
-      <c r="F184" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G184" s="2">
-        <v>0.004</v>
-      </c>
-      <c r="H184" s="2">
-        <v>0.996</v>
-      </c>
-      <c r="I184" s="2">
-        <v>0.996</v>
-      </c>
-      <c r="J184" s="2">
-        <v>0.139</v>
-      </c>
-      <c r="K184" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="L184" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M184" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="N184" s="2">
-        <v>3594.0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B185" s="2">
-        <v>52.0</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E185" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F185" s="2">
-        <v>0.023</v>
-      </c>
-      <c r="G185" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="H185" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="I185" s="2">
-        <v>0.318</v>
-      </c>
-      <c r="J185" s="2">
-        <v>0.833</v>
-      </c>
-      <c r="K185" s="2">
-        <v>0.677</v>
-      </c>
-      <c r="L185" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M185" s="2">
-        <v>2.85</v>
-      </c>
-      <c r="N185" s="2">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B186" s="2">
-        <v>53.0</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E186" s="2">
-        <v>0.066</v>
-      </c>
-      <c r="F186" s="2">
-        <v>0.167</v>
-      </c>
-      <c r="G186" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="H186" s="2">
-        <v>0.979</v>
-      </c>
-      <c r="I186" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="J186" s="2">
-        <v>0.148</v>
-      </c>
-      <c r="K186" s="2">
-        <v>0.106</v>
-      </c>
-      <c r="L186" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M186" s="2">
-        <v>2.48</v>
-      </c>
-      <c r="N186" s="2">
-        <v>2872.0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B187" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E187" s="2">
-        <v>0.022</v>
-      </c>
-      <c r="F187" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="G187" s="2">
-        <v>0.074</v>
-      </c>
-      <c r="H187" s="2">
-        <v>0.926</v>
-      </c>
-      <c r="I187" s="2">
-        <v>0.926</v>
-      </c>
-      <c r="J187" s="2">
-        <v>0.722</v>
-      </c>
-      <c r="K187" s="2">
-        <v>0.102</v>
-      </c>
-      <c r="L187" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M187" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="N187" s="2">
-        <v>674.0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B188" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E188" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F188" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G188" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H188" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I188" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J188" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="K188" s="2">
-        <v>0.732</v>
-      </c>
-      <c r="L188" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M188" s="2">
-        <v>2.73</v>
-      </c>
-      <c r="N188" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B189" s="2">
-        <v>61.0</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E189" s="2">
-        <v>0.018</v>
-      </c>
-      <c r="F189" s="2">
-        <v>0.069</v>
-      </c>
-      <c r="G189" s="2">
-        <v>0.735</v>
-      </c>
-      <c r="H189" s="2">
-        <v>0.265</v>
-      </c>
-      <c r="I189" s="2">
-        <v>0.282</v>
-      </c>
-      <c r="J189" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="K189" s="2">
-        <v>0.221</v>
-      </c>
-      <c r="L189" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M189" s="2">
-        <v>1.59</v>
-      </c>
-      <c r="N189" s="2">
-        <v>825.0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B190" s="2">
-        <v>62.0</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E190" s="2">
-        <v>0.006</v>
-      </c>
-      <c r="F190" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G190" s="2">
-        <v>0.211</v>
-      </c>
-      <c r="H190" s="2">
-        <v>0.789</v>
-      </c>
-      <c r="I190" s="2">
-        <v>0.842</v>
-      </c>
-      <c r="J190" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="K190" s="2">
-        <v>0.318</v>
-      </c>
-      <c r="L190" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M190" s="2">
-        <v>3.17</v>
-      </c>
-      <c r="N190" s="2">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B191" s="2">
-        <v>64.0</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E191" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="F191" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="G191" s="2">
-        <v>0.009</v>
-      </c>
-      <c r="H191" s="2">
-        <v>0.991</v>
-      </c>
-      <c r="I191" s="2">
-        <v>0.991</v>
-      </c>
-      <c r="J191" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="K191" s="2">
-        <v>0.166</v>
-      </c>
-      <c r="L191" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M191" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="N191" s="2">
-        <v>1278.0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B192" s="2">
-        <v>66.0</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E192" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F192" s="2">
-        <v>0.045</v>
-      </c>
-      <c r="G192" s="2">
-        <v>0.467</v>
-      </c>
-      <c r="H192" s="2">
-        <v>0.532</v>
-      </c>
-      <c r="I192" s="2">
-        <v>0.542</v>
-      </c>
-      <c r="J192" s="2">
-        <v>0.008</v>
-      </c>
-      <c r="K192" s="2">
-        <v>0.732</v>
-      </c>
-      <c r="L192" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M192" s="2">
-        <v>2.33</v>
-      </c>
-      <c r="N192" s="2">
-        <v>1555.0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B193" s="2">
-        <v>67.0</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E193" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="F193" s="2">
-        <v>0.062</v>
-      </c>
-      <c r="G193" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="H193" s="2">
-        <v>0.896</v>
-      </c>
-      <c r="I193" s="2">
-        <v>0.904</v>
-      </c>
-      <c r="J193" s="2">
-        <v>0.518</v>
-      </c>
-      <c r="K193" s="2">
-        <v>0.149</v>
-      </c>
-      <c r="L193" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M193" s="2">
-        <v>2.64</v>
-      </c>
-      <c r="N193" s="2">
-        <v>2101.0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B194" s="2">
-        <v>68.0</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E194" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F194" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G194" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H194" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I194" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J194" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="K194" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="L194" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M194" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="N194" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B195" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E195" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F195" s="2">
-        <v>0.067</v>
-      </c>
-      <c r="G195" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="H195" s="2">
-        <v>0.847</v>
-      </c>
-      <c r="I195" s="2">
-        <v>0.853</v>
-      </c>
-      <c r="J195" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="K195" s="2">
-        <v>0.978</v>
-      </c>
-      <c r="L195" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M195" s="2">
-        <v>3.52</v>
-      </c>
-      <c r="N195" s="2">
-        <v>3257.0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B196" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E196" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F196" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G196" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H196" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I196" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J196" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="K196" s="2">
-        <v>0.883</v>
-      </c>
-      <c r="L196" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M196" s="2">
-        <v>2.88</v>
-      </c>
-      <c r="N196" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B197" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E197" s="2">
-        <v>0.002</v>
-      </c>
-      <c r="F197" s="2">
-        <v>0.115</v>
-      </c>
-      <c r="G197" s="2">
-        <v>0.413</v>
-      </c>
-      <c r="H197" s="2">
-        <v>0.587</v>
-      </c>
-      <c r="I197" s="2">
-        <v>0.598</v>
-      </c>
-      <c r="J197" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="K197" s="2">
-        <v>0.085</v>
-      </c>
-      <c r="L197" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M197" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="N197" s="2">
-        <v>905.0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B198" s="2">
-        <v>80.0</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E198" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F198" s="2">
-        <v>0.016</v>
-      </c>
-      <c r="G198" s="2">
-        <v>0.533</v>
-      </c>
-      <c r="H198" s="2">
-        <v>0.467</v>
-      </c>
-      <c r="I198" s="2">
-        <v>0.525</v>
-      </c>
-      <c r="J198" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="K198" s="2">
-        <v>0.183</v>
-      </c>
-      <c r="L198" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M198" s="2">
-        <v>2.42</v>
-      </c>
-      <c r="N198" s="2">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B199" s="2">
-        <v>81.0</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E199" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F199" s="2">
-        <v>0.065</v>
-      </c>
-      <c r="G199" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="H199" s="2">
-        <v>0.318</v>
-      </c>
-      <c r="I199" s="2">
-        <v>0.328</v>
-      </c>
-      <c r="J199" s="2">
-        <v>0.002</v>
-      </c>
-      <c r="K199" s="2">
-        <v>0.335</v>
-      </c>
-      <c r="L199" s="2">
-        <v>0.074</v>
-      </c>
-      <c r="M199" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="N199" s="2">
-        <v>789.0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B200" s="2">
-        <v>82.0</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E200" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F200" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="G200" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H200" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I200" s="2">
-        <v>0.417</v>
-      </c>
-      <c r="J200" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="K200" s="2">
-        <v>0.323</v>
-      </c>
-      <c r="L200" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M200" s="2">
-        <v>2.99</v>
-      </c>
-      <c r="N200" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B201" s="2">
-        <v>83.0</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E201" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F201" s="2">
-        <v>0.037</v>
-      </c>
-      <c r="G201" s="2">
-        <v>0.379</v>
-      </c>
-      <c r="H201" s="2">
-        <v>0.621</v>
-      </c>
-      <c r="I201" s="2">
-        <v>0.626</v>
-      </c>
-      <c r="J201" s="2">
-        <v>0.807</v>
-      </c>
-      <c r="K201" s="2">
-        <v>0.094</v>
-      </c>
-      <c r="L201" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M201" s="2">
-        <v>2.56</v>
-      </c>
-      <c r="N201" s="2">
-        <v>146.0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B202" s="2">
-        <v>84.0</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E202" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F202" s="2">
-        <v>0.048</v>
-      </c>
-      <c r="G202" s="2">
-        <v>0.07</v>
-      </c>
-      <c r="H202" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="I202" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="J202" s="2">
-        <v>0.558</v>
-      </c>
-      <c r="K202" s="2">
-        <v>0.486</v>
-      </c>
-      <c r="L202" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M202" s="2">
-        <v>3.02</v>
-      </c>
-      <c r="N202" s="2">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B203" s="2">
-        <v>85.0</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E203" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F203" s="2">
-        <v>0.143</v>
-      </c>
-      <c r="G203" s="2">
-        <v>0.771</v>
-      </c>
-      <c r="H203" s="2">
-        <v>0.229</v>
-      </c>
-      <c r="I203" s="2">
-        <v>0.257</v>
-      </c>
-      <c r="J203" s="2">
-        <v>0.844</v>
-      </c>
-      <c r="K203" s="2">
-        <v>0.249</v>
-      </c>
-      <c r="L203" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M203" s="2">
-        <v>2.49</v>
-      </c>
-      <c r="N203" s="2">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B204" s="2">
-        <v>86.0</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E204" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F204" s="2">
-        <v>0.021</v>
-      </c>
-      <c r="G204" s="2">
-        <v>0.463</v>
-      </c>
-      <c r="H204" s="2">
-        <v>0.537</v>
-      </c>
-      <c r="I204" s="2">
-        <v>0.726</v>
-      </c>
-      <c r="J204" s="2">
-        <v>0.761</v>
-      </c>
-      <c r="K204" s="2">
-        <v>0.28</v>
-      </c>
-      <c r="L204" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M204" s="2">
-        <v>2.79</v>
-      </c>
-      <c r="N204" s="2">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B205" s="2">
-        <v>88.0</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E205" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F205" s="2">
-        <v>0.057</v>
-      </c>
-      <c r="G205" s="2">
-        <v>0.295</v>
-      </c>
-      <c r="H205" s="2">
-        <v>0.705</v>
-      </c>
-      <c r="I205" s="2">
-        <v>0.714</v>
-      </c>
-      <c r="J205" s="2">
-        <v>0.523</v>
-      </c>
-      <c r="K205" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="L205" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M205" s="2">
-        <v>2.67</v>
-      </c>
-      <c r="N205" s="2">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B206" s="2">
-        <v>89.0</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E206" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F206" s="2">
-        <v>0.033</v>
-      </c>
-      <c r="G206" s="2">
-        <v>0.179</v>
-      </c>
-      <c r="H206" s="2">
-        <v>0.819</v>
-      </c>
-      <c r="I206" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="J206" s="2">
-        <v>0.677</v>
-      </c>
-      <c r="K206" s="2">
-        <v>0.266</v>
-      </c>
-      <c r="L206" s="2">
-        <v>0.101</v>
-      </c>
-      <c r="M206" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="N206" s="2">
-        <v>240.0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B207" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E207" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F207" s="2">
-        <v>0.056</v>
-      </c>
-      <c r="G207" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="H207" s="2">
-        <v>0.778</v>
-      </c>
-      <c r="I207" s="2">
-        <v>0.779</v>
-      </c>
-      <c r="J207" s="2">
-        <v>0.509</v>
-      </c>
-      <c r="K207" s="2">
-        <v>0.079</v>
-      </c>
-      <c r="L207" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="M207" s="2">
-        <v>2.42</v>
-      </c>
-      <c r="N207" s="2">
-        <v>670.0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B208" s="2">
-        <v>90.0</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E208" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F208" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G208" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H208" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I208" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J208" s="2">
-        <v>0.908</v>
-      </c>
-      <c r="K208" s="2">
-        <v>0.374</v>
-      </c>
-      <c r="L208" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M208" s="2">
-        <v>3.08</v>
-      </c>
-      <c r="N208" s="2">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B209" s="2">
-        <v>91.0</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E209" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F209" s="2">
-        <v>0.167</v>
-      </c>
-      <c r="G209" s="2">
-        <v>0.005</v>
-      </c>
-      <c r="H209" s="2">
-        <v>0.995</v>
-      </c>
-      <c r="I209" s="2">
-        <v>0.995</v>
-      </c>
-      <c r="J209" s="2">
-        <v>0.968</v>
-      </c>
-      <c r="K209" s="2">
-        <v>0.743</v>
-      </c>
-      <c r="L209" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M209" s="2">
-        <v>3.87</v>
-      </c>
-      <c r="N209" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B210" s="2">
-        <v>93.0</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E210" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F210" s="2">
-        <v>0.027</v>
-      </c>
-      <c r="G210" s="2">
-        <v>0.218</v>
-      </c>
-      <c r="H210" s="2">
-        <v>0.782</v>
-      </c>
-      <c r="I210" s="2">
-        <v>0.789</v>
-      </c>
-      <c r="J210" s="2">
-        <v>0.854</v>
-      </c>
-      <c r="K210" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="L210" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M210" s="2">
-        <v>2.87</v>
-      </c>
-      <c r="N210" s="2">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B211" s="2">
-        <v>94.0</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E211" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F211" s="2">
-        <v>0.021</v>
-      </c>
-      <c r="G211" s="2">
-        <v>0.822</v>
-      </c>
-      <c r="H211" s="2">
-        <v>0.178</v>
-      </c>
-      <c r="I211" s="2">
-        <v>0.225</v>
-      </c>
-      <c r="J211" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="K211" s="2">
-        <v>0.162</v>
-      </c>
-      <c r="L211" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M211" s="2">
-        <v>2.24</v>
-      </c>
-      <c r="N211" s="2">
-        <v>74.0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B212" s="2">
-        <v>96.0</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E212" s="2">
-        <v>0.069</v>
-      </c>
-      <c r="F212" s="2">
-        <v>0.168</v>
-      </c>
-      <c r="G212" s="2">
-        <v>0.842</v>
-      </c>
-      <c r="H212" s="2">
-        <v>0.158</v>
-      </c>
-      <c r="I212" s="2">
-        <v>0.168</v>
-      </c>
-      <c r="J212" s="2">
-        <v>0.929</v>
-      </c>
-      <c r="K212" s="2">
-        <v>0.427</v>
-      </c>
-      <c r="L212" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M212" s="2">
-        <v>2.76</v>
-      </c>
-      <c r="N212" s="2">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B213" s="2">
-        <v>97.0</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E213" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F213" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G213" s="2">
-        <v>0.004</v>
-      </c>
-      <c r="H213" s="2">
-        <v>0.996</v>
-      </c>
-      <c r="I213" s="2">
-        <v>0.996</v>
-      </c>
-      <c r="J213" s="2">
-        <v>0.832</v>
-      </c>
-      <c r="K213" s="2">
-        <v>0.501</v>
-      </c>
-      <c r="L213" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M213" s="2">
-        <v>3.33</v>
-      </c>
-      <c r="N213" s="2">
-        <v>408.0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="B214" s="2">
-        <v>98.0</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E214" s="2">
-        <v>0.002</v>
-      </c>
-      <c r="F214" s="2">
-        <v>0.148</v>
-      </c>
-      <c r="G214" s="2">
-        <v>0.768</v>
-      </c>
-      <c r="H214" s="2">
-        <v>0.232</v>
-      </c>
-      <c r="I214" s="2">
-        <v>0.269</v>
-      </c>
-      <c r="J214" s="2">
-        <v>0.172</v>
-      </c>
-      <c r="K214" s="2">
-        <v>0.049</v>
-      </c>
-      <c r="L214" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M214" s="2">
-        <v>1.64</v>
-      </c>
-      <c r="N214" s="2">
-        <v>6639.0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$N$214"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>